--- a/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Шапка.xlsx
@@ -83,37 +83,225 @@
     <t>Зам. директора по производству и технологии</t>
   </si>
   <si>
-    <t>0000006303 Формокомплект тестовый Казацкая Рада 700</t>
-  </si>
-  <si>
     <t>1 шт.</t>
   </si>
   <si>
-    <t>0000006304 Формокомплект тестовый Казацкая Рада 1000</t>
-  </si>
-  <si>
     <t>ООО "НАТ"</t>
   </si>
   <si>
     <t>Договор безвозмездного пользования имуществом №08052019/АН от 08.05.2019</t>
   </si>
   <si>
-    <t>автомобиль: Тойота Камри</t>
-  </si>
-  <si>
-    <t>гос. номер: Х 428 КВ 777</t>
-  </si>
-  <si>
-    <t>водитель: Юдин А.С.</t>
-  </si>
-  <si>
-    <t>пут. лист №569 от 02.12.2019 г.</t>
-  </si>
-  <si>
-    <t>доверенность №2122019 от 02.12.2019</t>
-  </si>
-  <si>
     <t>г. Москва, 2-ой Южнопортовый проезд, дом 20А, строение 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">автомобиль: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Тойота Камри</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">гос. номер: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Х 428 КВ 777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">водитель: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Юдин А.С.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>пут. лист №</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>569</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>02.12.2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>доверенность №</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2122019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>02.12.2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0000006303 Формокомплект тестовый Казацкая Рада 700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (вес </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> кг.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0000006304 Формокомплект тестовый Казацкая Рада 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (вес </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> кг.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -221,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,9 +455,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,10 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="86" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,67 +820,67 @@
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
+      <c r="C15" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -750,7 +948,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>

--- a/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Шапка.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Заявки на отгрузку\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F8384-7BA3-41DC-824F-5B163E4F1DAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -80,9 +81,6 @@
     <t>Начальник участка ремонта форм</t>
   </si>
   <si>
-    <t>Зам. директора по производству и технологии</t>
-  </si>
-  <si>
     <t>1 шт.</t>
   </si>
   <si>
@@ -302,12 +300,15 @@
       </rPr>
       <t xml:space="preserve"> кг.)</t>
     </r>
+  </si>
+  <si>
+    <t>Зам. директора</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,6 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,7 +466,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,64 +745,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="86" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="86" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,74 +819,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="12" t="s">
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>21</v>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -895,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -906,14 +907,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -921,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
